--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/38_Iğdır_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/38_Iğdır_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60726171-74CB-4812-BD54-28DEA4352173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC02294-7FB7-41A2-9FAA-7717E448786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{A97D8FE9-8032-438B-957B-4201C24A2983}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{12D793AF-C80B-4CEA-9C60-608C4DFDD6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -939,14 +939,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2BE34997-1F9C-4D4D-92AA-15A82DC348B0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8D54C297-F70A-4932-89AA-837F0CBA520B}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{4C0F8EB1-BB48-473F-AB46-E840217B2DD6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7B8988AA-75AD-4DA5-BE3D-AEA60AA5A089}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FEC12557-E074-444C-B4B2-85FCE30C32C3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BC4C8163-68EE-49B4-8EAF-00CB69BB5CE1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C1AFE37D-6C5E-4910-A804-5A12B79B0DE5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{599B2B6C-2969-4961-8251-8A090BA6DF5A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{38FC1F2B-4795-44E8-9C4B-4B1F0F95C373}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8D5E822C-80D5-40A0-85CF-E23E953C2DEB}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{31060109-D8F5-407F-B9F4-C67338FBCAF8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F3D15386-86E0-4540-9281-837095F56B28}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4D61C074-8B52-4EFD-AE93-FBE27D917038}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4A641A81-9D39-4D99-ABD3-A65239B4E290}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{63F56758-BE45-46EC-8B15-4487B34D0FBE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{71A6D58C-FFF5-4308-BAF3-C5C8590B62BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3DC477-2CFC-4D89-A93E-89CACEF96AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3131B6-8031-4475-8326-B6578F877E83}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2576,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B444640F-759F-4406-AFE5-0C36B1FB56DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B7A8E1-C4CA-459A-9A95-43DB49FCAF76}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3798,7 +3798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2582D-C655-4DC7-821D-F63C8DDB8F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2676E8-F858-4767-9E98-920E1A9F6D0C}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5008,7 +5008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE199D2-014A-4296-95E2-53C0843749AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802C80D7-2085-4813-B957-7FF8C436E64F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6204,7 +6204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39099D00-6CC0-4EB7-A692-EF1235AFD6AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75E1587-4481-41EC-A4D2-C8BCE26A6F0A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7461,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D7C14-B357-4FFC-A27D-2DB274EA524E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583CB03-A380-4EB8-AC4B-6847848B34B7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8718,7 +8718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7B455D-1105-48D6-BC69-AF9DB8962297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107F26D2-0177-4A9D-B35A-8E9B18E7601A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9975,7 +9975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D9F7EC-4766-406A-A734-0E306C79925C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B5E150-D250-4F70-AD6A-23C6D74D49C2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11232,7 +11232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40F2429-2A8E-4DBF-942A-C4715DC9BC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709E340-BDBD-4B28-844F-6CCC262B6324}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12490,7 +12490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9CD14-54E0-4795-BDEE-2D6AE8CFF38B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB70AD-187A-48A2-B03E-01934EE94162}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13736,7 +13736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833C58F9-53CA-4D1D-B8AE-F6740C35F2D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F47941-ED0A-40F7-ACB9-7F3C472D46A3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14982,7 +14982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F5C8F4-7AAF-4454-B888-13E56AC9E14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C717D35-C27F-4D76-A602-20258B2C787B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
